--- a/output/Preprocess.xlsx
+++ b/output/Preprocess.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ave" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="std" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="dropna" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="imputna" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ave" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="std" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1399,7 +1401,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,28 +1409,31 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -1439,28 +1444,31 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.536755051042372</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.134124586375223</v>
+        <v>5.170308263082359</v>
       </c>
       <c r="F2" t="n">
-        <v>10.2501696745097</v>
+        <v>4.773724118417948</v>
       </c>
       <c r="G2" t="n">
-        <v>6.205819668449199</v>
+        <v>10.58995765998624</v>
       </c>
       <c r="H2" t="n">
-        <v>16.04818639352237</v>
+        <v>7.02503888973279</v>
       </c>
       <c r="I2" t="n">
-        <v>12.24421961574338</v>
+        <v>14.06124392826154</v>
       </c>
       <c r="J2" t="n">
-        <v>2.927117168099464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>12.17234894772076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.912152563777762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1468,31 +1476,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6.089603883946515</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>4.798778562313887</v>
+        <v>5.070629579131314</v>
       </c>
       <c r="F3" t="n">
-        <v>10.3570782936865</v>
+        <v>3.718128462702715</v>
       </c>
       <c r="G3" t="n">
-        <v>7.128620732879291</v>
+        <v>9.878772358817926</v>
       </c>
       <c r="H3" t="n">
-        <v>14.93644462520313</v>
+        <v>5.52272656252107</v>
       </c>
       <c r="I3" t="n">
-        <v>8.929378350559745</v>
+        <v>17.23081792906107</v>
       </c>
       <c r="J3" t="n">
-        <v>2.699568789426638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>12.28020091054291</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.09137572034162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1500,220 +1511,871 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6.568131531805065</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4.024669872041328</v>
+        <v>6.369327310913445</v>
       </c>
       <c r="F4" t="n">
-        <v>10.20780213672093</v>
+        <v>3.910521178005006</v>
       </c>
       <c r="G4" t="n">
-        <v>5.96998983691017</v>
+        <v>10.28177900472493</v>
       </c>
       <c r="H4" t="n">
-        <v>15.34587973513281</v>
+        <v>6.069693553093739</v>
       </c>
       <c r="I4" t="n">
-        <v>9.309230058426204</v>
+        <v>16.8524973232445</v>
       </c>
       <c r="J4" t="n">
-        <v>3.324001994808585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>12.28010898896646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.777823220179009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.398964879252916</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4.602863483260481</v>
+        <v>5.978894000161828</v>
       </c>
       <c r="F5" t="n">
-        <v>10.07022130009009</v>
+        <v>4.993130699280571</v>
       </c>
       <c r="G5" t="n">
-        <v>6.601740878713016</v>
+        <v>10.38009174945316</v>
       </c>
       <c r="H5" t="n">
-        <v>15.72242347606563</v>
+        <v>7.394947718905399</v>
       </c>
       <c r="I5" t="n">
-        <v>11.0094331763604</v>
+        <v>14.70840348799622</v>
       </c>
       <c r="J5" t="n">
-        <v>2.810121303484674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>8.287991219609779</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.529638140854446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>6.592087079447143</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>5.107030333436498</v>
+        <v>6.870969886165936</v>
       </c>
       <c r="F6" t="n">
-        <v>9.412115350796944</v>
+        <v>6.663155165208426</v>
       </c>
       <c r="G6" t="n">
-        <v>7.497087291543532</v>
+        <v>11.07374154861059</v>
       </c>
       <c r="H6" t="n">
-        <v>14.37341658959546</v>
+        <v>9.921748840707107</v>
       </c>
       <c r="I6" t="n">
-        <v>10.13952765163218</v>
+        <v>13.44759028717348</v>
       </c>
       <c r="J6" t="n">
-        <v>3.17084238115632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>8.28235238390609</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.460838781494102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>5.825211222010512</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3.79422522134527</v>
+        <v>5.418947765511781</v>
       </c>
       <c r="F7" t="n">
-        <v>10.08449267033728</v>
+        <v>2.740049822452667</v>
       </c>
       <c r="G7" t="n">
-        <v>5.890548501558906</v>
+        <v>9.617401582995738</v>
       </c>
       <c r="H7" t="n">
-        <v>14.59907686427916</v>
+        <v>4.069165639025366</v>
       </c>
       <c r="I7" t="n">
-        <v>8.208331485253833</v>
+        <v>16.65334010043969</v>
       </c>
       <c r="J7" t="n">
-        <v>2.683515835661911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>10.21779144816337</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.108229445931368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>5.942157986852735</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3.813793427256629</v>
+        <v>6.822251902314769</v>
       </c>
       <c r="F8" t="n">
-        <v>10.07099346775511</v>
+        <v>4.531171167173957</v>
       </c>
       <c r="G8" t="n">
-        <v>5.716496477911118</v>
+        <v>9.166531731835439</v>
       </c>
       <c r="H8" t="n">
-        <v>14.3813443687892</v>
+        <v>7.160530600170513</v>
       </c>
       <c r="I8" t="n">
-        <v>11.43729832768422</v>
+        <v>16.38073771916703</v>
       </c>
       <c r="J8" t="n">
-        <v>2.956367194962658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>11.5183593817785</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.00434246834711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>5.799548592527896</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3.238912172479621</v>
+        <v>6.384474613065564</v>
       </c>
       <c r="F9" t="n">
-        <v>9.387058616169794</v>
+        <v>4.235678676052007</v>
       </c>
       <c r="G9" t="n">
-        <v>4.956021464907667</v>
+        <v>11.21478607420705</v>
       </c>
       <c r="H9" t="n">
-        <v>16.51382971474943</v>
+        <v>5.994946679468142</v>
       </c>
       <c r="I9" t="n">
-        <v>9.626484080390368</v>
+        <v>13.3515886596149</v>
       </c>
       <c r="J9" t="n">
-        <v>3.429468716090081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>7.667206068610206</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.969252670799072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>6.077798515456462</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>4.058358049795156</v>
+        <v>6.497668080034865</v>
       </c>
       <c r="F10" t="n">
-        <v>9.621054076353509</v>
+        <v>3.307159772898022</v>
       </c>
       <c r="G10" t="n">
-        <v>5.918198706788746</v>
+        <v>10.24208860412031</v>
       </c>
       <c r="H10" t="n">
-        <v>16.38202344496885</v>
+        <v>4.754492231091853</v>
       </c>
       <c r="I10" t="n">
-        <v>10.16154924733859</v>
+        <v>16.30531282661649</v>
       </c>
       <c r="J10" t="n">
-        <v>3.449275720935547</v>
+        <v>8.74212472488991</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.998410845279575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.771470613117262</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.303785906359637</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.33284150110639</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.432528992809608</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.32365098086952</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.72752547729286</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.976665958329995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.632786825714742</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.310372716379857</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.41112355972619</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.480494089224547</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14.38319218404078</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.60915253619182</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.154297065904729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.792637198926744</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.194431827041948</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.466698839437692</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.892199554104892</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.46042726328659</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.69162151559652</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.299400886219297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.763001953189955</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.497784695950457</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.43385292006613</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.065222675431501</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16.14947245623486</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.913393777236621</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.172087481155351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.987351435156675</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.17698253178211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.03746604975949</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.237619949220747</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14.15741140206323</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.360523059994408</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.235607769600428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.0259078499948</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.646323772576928</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.76502708256521</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.188419249978345</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.81336591048828</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.14466611766551</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.104831892713181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.111102677132735</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.585513629059411</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.01570396714812</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.735900280552724</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.77400869259392</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.026026361511484</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.405498764401679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.89345441640773</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.359623626297076</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.935755254487706</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.276751481990456</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14.50119595732503</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.74365134911012</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.013293000977941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.471076572491066</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.437538408679321</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.30201878937601</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.658993742133537</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.52202594291855</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.855316745139894</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.631755741606113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.961757365129328</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.062934132505889</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.53447119019049</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.516455805116567</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.73804305914929</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.07605353816364</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.923870397895818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.22728912344096</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.431805476123702</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.06753010450634</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.924654820810231</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.85245715286911</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11.54397765324113</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.571895071639516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.63742747198792</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.946640673140298</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.61097910856849</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.708378807806557</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.55353289434919</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.6918637916479</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.37333611535264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.88986823501064</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.54570845875734</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.823726252003887</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.184593130662435</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.94939381324335</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.54469926851831</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.685594801890443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.253312382538368</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.977356827836838</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.028570757050144</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.734128430430543</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16.24505242745368</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.693859823919972</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.564834023762492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.255465160034678</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.193671230844688</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.308878839455351</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.949342833630022</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17.34704290355126</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.640893148732813</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.037977322617309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.011359598074279</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.009538240764668</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.063990424071211</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.594826201790683</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.60235559046724</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.428236664527102</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.256134155050225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.583295440460326</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.639636766998868</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.771016520708676</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.634564004278094</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.08291554522064</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.27387786364308</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.464296917973521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.638740507834784</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.525899141621929</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.02815528428064</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.525205914297459</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17.46079919921866</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.782533213845591</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.627396089782897</v>
       </c>
     </row>
   </sheetData>
@@ -1722,6 +2384,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.170308263082359</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.773724118417948</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.58995765998624</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.02503888973279</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.06124392826154</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.17234894772076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.912152563777762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.070629579131314</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.718128462702715</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.878772358817926</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.52272656252107</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.23081792906107</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.28020091054291</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.09137572034162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.369327310913445</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.910521178005006</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.28177900472493</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.069693553093739</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.8524973232445</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.28010898896646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.777823220179009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.978894000161828</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.993130699280571</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.38009174945316</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.394947718905399</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.70840348799622</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.287991219609779</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.529638140854446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.870969886165936</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.663155165208426</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.07374154861059</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.921748840707107</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.44759028717348</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.28235238390609</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.460838781494102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.418947765511781</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.740049822452667</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.617401582995738</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.069165639025366</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.65334010043969</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.21779144816337</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.108229445931368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.822251902314769</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.531171167173957</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.166531731835439</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.160530600170513</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.38073771916703</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.5183593817785</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.00434246834711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.384474613065564</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.235678676052007</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.21478607420705</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.994946679468142</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.3515886596149</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.667206068610206</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.969252670799072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.497668080034865</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.307159772898022</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.24208860412031</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.754492231091853</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.30531282661649</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.74212472488991</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.998410845279575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.771470613117262</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.303785906359637</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.33284150110639</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.432528992809608</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.32365098086952</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.72752547729286</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.976665958329995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.632786825714742</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.310372716379857</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.41112355972619</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.480494089224547</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14.38319218404078</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.60915253619182</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.154297065904729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.792637198926744</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.194431827041948</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.466698839437692</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.892199554104892</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.46042726328659</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.69162151559652</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.299400886219297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.763001953189955</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.497784695950457</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.43385292006613</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.065222675431501</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16.14947245623486</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.913393777236621</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.172087481155351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.987351435156675</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.17698253178211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.03746604975949</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.237619949220747</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14.15741140206323</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.360523059994408</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.235607769600428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.0259078499948</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.646323772576928</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.76502708256521</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.188419249978345</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.81336591048828</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.14466611766551</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.104831892713181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.111102677132735</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.585513629059411</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.01570396714812</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.735900280552724</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.77400869259392</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.026026361511484</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.405498764401679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.89345441640773</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.359623626297076</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.935755254487706</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.276751481990456</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14.50119595732503</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.74365134911012</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.013293000977941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.471076572491066</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.437538408679321</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.30201878937601</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.658993742133537</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.52202594291855</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.855316745139894</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.631755741606113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.961757365129328</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.062934132505889</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.53447119019049</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.516455805116567</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.73804305914929</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.07605353816364</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.923870397895818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.22728912344096</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.431805476123702</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.06753010450634</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.924654820810231</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.85245715286911</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11.54397765324113</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.571895071639516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.63742747198792</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.946640673140298</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.61097910856849</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.708378807806557</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.55353289434919</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.6918637916479</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.37333611535264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.88986823501064</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.54570845875734</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.823726252003887</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.184593130662435</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.94939381324335</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.54469926851831</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.685594801890443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.253312382538368</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.977356827836838</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.028570757050144</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.734128430430543</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16.24505242745368</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.693859823919972</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.564834023762492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.255465160034678</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.193671230844688</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.308878839455351</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.949342833630022</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17.34704290355126</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.640893148732813</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.037977322617309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.011359598074279</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.009538240764668</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.063990424071211</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.594826201790683</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.60235559046724</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.428236664527102</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.256134155050225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.583295440460326</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.639636766998868</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.771016520708676</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.634564004278094</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.08291554522064</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.27387786364308</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.464296917973521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.638740507834784</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.525899141621929</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.02815528428064</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.525205914297459</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17.46079919921866</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.782533213845591</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.627396089782897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1769,6 +3427,342 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.536755051042372</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.134124586375223</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.2501696745097</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.205819668449199</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16.04818639352237</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.24421961574338</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.927117168099464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.089603883946515</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.798778562313887</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.3570782936865</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.128620732879291</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.93644462520313</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.929378350559745</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.699568789426638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.568131531805065</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.024669872041328</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.20780213672093</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.96998983691017</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.34587973513281</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.309230058426204</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.324001994808585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.398964879252916</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.602863483260481</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.07022130009009</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.601740878713016</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.72242347606563</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.0094331763604</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.810121303484674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.592087079447143</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.107030333436498</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.412115350796944</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.497087291543532</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.37341658959546</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.13952765163218</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.17084238115632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.825211222010512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.79422522134527</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.08449267033728</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.890548501558906</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.59907686427916</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.208331485253833</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.683515835661911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.942157986852735</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.813793427256629</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.07099346775511</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.716496477911118</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.3813443687892</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.43729832768422</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.956367194962658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.799548592527896</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.238912172479621</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.387058616169794</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.956021464907667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.51382971474943</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.626484080390368</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.429468716090081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.077798515456462</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.058358049795156</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.621054076353509</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.918198706788746</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.38202344496885</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.16154924733859</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.449275720935547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">

--- a/output/Preprocess.xlsx
+++ b/output/Preprocess.xlsx
@@ -451,25 +451,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5.170308263082359</v>
+        <v>5.2</v>
       </c>
       <c r="F2" t="n">
-        <v>4.773724118417948</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>10.58995765998624</v>
+        <v>10.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7.02503888973279</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>14.06124392826154</v>
+        <v>14.1</v>
       </c>
       <c r="J2" t="n">
-        <v>12.17234894772076</v>
+        <v>12.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.912152563777762</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -486,25 +486,25 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5.070629579131314</v>
+        <v>5.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3.718128462702715</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>9.878772358817926</v>
+        <v>9.9</v>
       </c>
       <c r="H3" t="n">
-        <v>5.52272656252107</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>17.23081792906107</v>
+        <v>17.2</v>
       </c>
       <c r="J3" t="n">
-        <v>12.28020091054291</v>
+        <v>12.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.09137572034162</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -521,25 +521,25 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>6.369327310913445</v>
+        <v>6.4</v>
       </c>
       <c r="F4" t="n">
-        <v>3.910521178005006</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.28177900472493</v>
+        <v>10.3</v>
       </c>
       <c r="H4" t="n">
-        <v>6.069693553093739</v>
+        <v>6.1</v>
       </c>
       <c r="I4" t="n">
-        <v>16.8524973232445</v>
+        <v>16.9</v>
       </c>
       <c r="J4" t="n">
-        <v>12.28010898896646</v>
+        <v>12.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.777823220179009</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -556,25 +556,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.978894000161828</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>4.993130699280571</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>10.38009174945316</v>
+        <v>10.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7.394947718905399</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>14.70840348799622</v>
+        <v>14.7</v>
       </c>
       <c r="J5" t="n">
-        <v>8.287991219609779</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>3.529638140854446</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -591,25 +591,25 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>6.870969886165936</v>
+        <v>6.9</v>
       </c>
       <c r="F6" t="n">
-        <v>6.663155165208426</v>
+        <v>6.7</v>
       </c>
       <c r="G6" t="n">
-        <v>11.07374154861059</v>
+        <v>11.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.921748840707107</v>
+        <v>9.9</v>
       </c>
       <c r="I6" t="n">
-        <v>13.44759028717348</v>
+        <v>13.4</v>
       </c>
       <c r="J6" t="n">
-        <v>8.28235238390609</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>2.460838781494102</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -626,25 +626,25 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5.418947765511781</v>
+        <v>5.4</v>
       </c>
       <c r="F7" t="n">
-        <v>2.740049822452667</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>9.617401582995738</v>
+        <v>9.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.069165639025366</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>16.65334010043969</v>
+        <v>16.7</v>
       </c>
       <c r="J7" t="n">
-        <v>10.21779144816337</v>
+        <v>10.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.108229445931368</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -661,25 +661,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>6.822251902314769</v>
+        <v>6.8</v>
       </c>
       <c r="F8" t="n">
-        <v>4.531171167173957</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9.166531731835439</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>7.160530600170513</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>16.38073771916703</v>
+        <v>16.4</v>
       </c>
       <c r="J8" t="n">
-        <v>11.5183593817785</v>
+        <v>11.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.00434246834711</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -696,25 +696,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6.384474613065564</v>
+        <v>6.4</v>
       </c>
       <c r="F9" t="n">
-        <v>4.235678676052007</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>11.21478607420705</v>
+        <v>11.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5.994946679468142</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>13.3515886596149</v>
+        <v>13.4</v>
       </c>
       <c r="J9" t="n">
-        <v>7.667206068610206</v>
+        <v>7.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.969252670799072</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6.497668080034865</v>
+        <v>6.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3.307159772898022</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>10.24208860412031</v>
+        <v>10.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.754492231091853</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>16.30531282661649</v>
+        <v>16.3</v>
       </c>
       <c r="J10" t="n">
-        <v>8.74212472488991</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>3.998410845279575</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -766,25 +766,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>6.771470613117262</v>
+        <v>6.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5.303785906359637</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
-        <v>10.33284150110639</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="n">
-        <v>7.432528992809608</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>17.32365098086952</v>
+        <v>17.3</v>
       </c>
       <c r="J11" t="n">
-        <v>11.72752547729286</v>
+        <v>11.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.976665958329995</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -801,25 +801,25 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>5.632786825714742</v>
+        <v>5.6</v>
       </c>
       <c r="F12" t="n">
-        <v>4.310372716379857</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>10.41112355972619</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
-        <v>6.480494089224547</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>14.38319218404078</v>
+        <v>14.4</v>
       </c>
       <c r="J12" t="n">
-        <v>10.60915253619182</v>
+        <v>10.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.154297065904729</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -836,25 +836,25 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>6.792637198926744</v>
+        <v>6.8</v>
       </c>
       <c r="F13" t="n">
-        <v>4.194431827041948</v>
+        <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.466698839437692</v>
+        <v>9.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.892199554104892</v>
+        <v>5.9</v>
       </c>
       <c r="I13" t="n">
-        <v>15.46042726328659</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>10.69162151559652</v>
+        <v>10.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.299400886219297</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -871,25 +871,25 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>6.763001953189955</v>
+        <v>6.8</v>
       </c>
       <c r="F14" t="n">
-        <v>5.497784695950457</v>
+        <v>5.5</v>
       </c>
       <c r="G14" t="n">
-        <v>9.43385292006613</v>
+        <v>9.4</v>
       </c>
       <c r="H14" t="n">
-        <v>8.065222675431501</v>
+        <v>8.1</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14947245623486</v>
+        <v>16.1</v>
       </c>
       <c r="J14" t="n">
-        <v>8.913393777236621</v>
+        <v>8.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.172087481155351</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -906,25 +906,25 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>6.987351435156675</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>6.17698253178211</v>
+        <v>6.2</v>
       </c>
       <c r="G15" t="n">
-        <v>10.03746604975949</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>9.237619949220747</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>14.15741140206323</v>
+        <v>14.2</v>
       </c>
       <c r="J15" t="n">
-        <v>9.360523059994408</v>
+        <v>9.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.235607769600428</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -941,25 +941,25 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0259078499948</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>3.646323772576928</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.76502708256521</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>5.188419249978345</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>12.81336591048828</v>
+        <v>12.8</v>
       </c>
       <c r="J16" t="n">
-        <v>12.14466611766551</v>
+        <v>12.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.104831892713181</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -976,25 +976,25 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6.111102677132735</v>
+        <v>6.1</v>
       </c>
       <c r="F17" t="n">
-        <v>3.585513629059411</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>10.01570396714812</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>5.735900280552724</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>13.77400869259392</v>
+        <v>13.8</v>
       </c>
       <c r="J17" t="n">
-        <v>8.026026361511484</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.405498764401679</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1011,25 +1011,25 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>5.89345441640773</v>
+        <v>5.9</v>
       </c>
       <c r="F18" t="n">
-        <v>3.359623626297076</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>9.935755254487706</v>
+        <v>9.9</v>
       </c>
       <c r="H18" t="n">
-        <v>5.276751481990456</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>14.50119595732503</v>
+        <v>14.5</v>
       </c>
       <c r="J18" t="n">
-        <v>8.74365134911012</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>2.013293000977941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1046,25 +1046,25 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471076572491066</v>
+        <v>5.5</v>
       </c>
       <c r="F19" t="n">
-        <v>4.437538408679321</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>10.30201878937601</v>
+        <v>10.3</v>
       </c>
       <c r="H19" t="n">
-        <v>6.658993742133537</v>
+        <v>6.7</v>
       </c>
       <c r="I19" t="n">
-        <v>15.52202594291855</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>7.855316745139894</v>
+        <v>7.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.631755741606113</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1081,25 +1081,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5.961757365129328</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>3.062934132505889</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>10.53447119019049</v>
+        <v>10.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.516455805116567</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13.73804305914929</v>
+        <v>13.7</v>
       </c>
       <c r="J20" t="n">
-        <v>12.07605353816364</v>
+        <v>12.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.923870397895818</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1116,25 +1116,25 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>6.22728912344096</v>
+        <v>6.2</v>
       </c>
       <c r="F21" t="n">
-        <v>3.431805476123702</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>10.06753010450634</v>
+        <v>10.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.924654820810231</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>12.85245715286911</v>
+        <v>12.9</v>
       </c>
       <c r="J21" t="n">
-        <v>11.54397765324113</v>
+        <v>11.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.571895071639516</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1151,25 +1151,25 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>5.63742747198792</v>
+        <v>5.6</v>
       </c>
       <c r="F22" t="n">
-        <v>4.946640673140298</v>
+        <v>4.9</v>
       </c>
       <c r="G22" t="n">
-        <v>9.61097910856849</v>
+        <v>9.6</v>
       </c>
       <c r="H22" t="n">
-        <v>7.708378807806557</v>
+        <v>7.7</v>
       </c>
       <c r="I22" t="n">
-        <v>16.55353289434919</v>
+        <v>16.6</v>
       </c>
       <c r="J22" t="n">
-        <v>10.6918637916479</v>
+        <v>10.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.37333611535264</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1186,25 +1186,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>5.88986823501064</v>
+        <v>5.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3.54570845875734</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>9.823726252003887</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>5.184593130662435</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>15.94939381324335</v>
+        <v>15.9</v>
       </c>
       <c r="J23" t="n">
-        <v>10.54469926851831</v>
+        <v>10.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.685594801890443</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1221,25 +1221,25 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>5.253312382538368</v>
+        <v>5.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.977356827836838</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>9.028570757050144</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.734128430430543</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>16.24505242745368</v>
+        <v>16.2</v>
       </c>
       <c r="J24" t="n">
-        <v>9.693859823919972</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>3.564834023762492</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1256,25 +1256,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>6.255465160034678</v>
+        <v>6.3</v>
       </c>
       <c r="F25" t="n">
-        <v>3.193671230844688</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>9.308878839455351</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>4.949342833630022</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>17.34704290355126</v>
+        <v>17.3</v>
       </c>
       <c r="J25" t="n">
-        <v>8.640893148732813</v>
+        <v>8.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.037977322617309</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1291,25 +1291,25 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>6.011359598074279</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>3.009538240764668</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>9.063990424071211</v>
+        <v>9.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.594826201790683</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>16.60235559046724</v>
+        <v>16.6</v>
       </c>
       <c r="J26" t="n">
-        <v>8.428236664527102</v>
+        <v>8.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.256134155050225</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1326,25 +1326,25 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>6.583295440460326</v>
+        <v>6.6</v>
       </c>
       <c r="F27" t="n">
-        <v>4.639636766998868</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
-        <v>8.771016520708676</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>6.634564004278094</v>
+        <v>6.6</v>
       </c>
       <c r="I27" t="n">
-        <v>15.08291554522064</v>
+        <v>15.1</v>
       </c>
       <c r="J27" t="n">
-        <v>12.27387786364308</v>
+        <v>12.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.464296917973521</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1361,25 +1361,25 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>5.638740507834784</v>
+        <v>5.6</v>
       </c>
       <c r="F28" t="n">
-        <v>4.525899141621929</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>11.02815528428064</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>6.525205914297459</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>17.46079919921866</v>
+        <v>17.5</v>
       </c>
       <c r="J28" t="n">
-        <v>9.782533213845591</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>3.627396089782897</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -1447,25 +1447,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5.170308263082359</v>
+        <v>5.2</v>
       </c>
       <c r="F2" t="n">
-        <v>4.773724118417948</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>10.58995765998624</v>
+        <v>10.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7.02503888973279</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>14.06124392826154</v>
+        <v>14.1</v>
       </c>
       <c r="J2" t="n">
-        <v>12.17234894772076</v>
+        <v>12.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.912152563777762</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1482,25 +1482,25 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5.070629579131314</v>
+        <v>5.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3.718128462702715</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>9.878772358817926</v>
+        <v>9.9</v>
       </c>
       <c r="H3" t="n">
-        <v>5.52272656252107</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>17.23081792906107</v>
+        <v>17.2</v>
       </c>
       <c r="J3" t="n">
-        <v>12.28020091054291</v>
+        <v>12.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.09137572034162</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1517,25 +1517,25 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>6.369327310913445</v>
+        <v>6.4</v>
       </c>
       <c r="F4" t="n">
-        <v>3.910521178005006</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.28177900472493</v>
+        <v>10.3</v>
       </c>
       <c r="H4" t="n">
-        <v>6.069693553093739</v>
+        <v>6.1</v>
       </c>
       <c r="I4" t="n">
-        <v>16.8524973232445</v>
+        <v>16.9</v>
       </c>
       <c r="J4" t="n">
-        <v>12.28010898896646</v>
+        <v>12.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.777823220179009</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1552,25 +1552,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.978894000161828</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>4.993130699280571</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>10.38009174945316</v>
+        <v>10.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7.394947718905399</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>14.70840348799622</v>
+        <v>14.7</v>
       </c>
       <c r="J5" t="n">
-        <v>8.287991219609779</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>3.529638140854446</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1587,25 +1587,25 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>6.870969886165936</v>
+        <v>6.9</v>
       </c>
       <c r="F6" t="n">
-        <v>6.663155165208426</v>
+        <v>6.7</v>
       </c>
       <c r="G6" t="n">
-        <v>11.07374154861059</v>
+        <v>11.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.921748840707107</v>
+        <v>9.9</v>
       </c>
       <c r="I6" t="n">
-        <v>13.44759028717348</v>
+        <v>13.4</v>
       </c>
       <c r="J6" t="n">
-        <v>8.28235238390609</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>2.460838781494102</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1622,25 +1622,25 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5.418947765511781</v>
+        <v>5.4</v>
       </c>
       <c r="F7" t="n">
-        <v>2.740049822452667</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>9.617401582995738</v>
+        <v>9.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.069165639025366</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>16.65334010043969</v>
+        <v>16.7</v>
       </c>
       <c r="J7" t="n">
-        <v>10.21779144816337</v>
+        <v>10.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.108229445931368</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1657,25 +1657,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>6.822251902314769</v>
+        <v>6.8</v>
       </c>
       <c r="F8" t="n">
-        <v>4.531171167173957</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9.166531731835439</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>7.160530600170513</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>16.38073771916703</v>
+        <v>16.4</v>
       </c>
       <c r="J8" t="n">
-        <v>11.5183593817785</v>
+        <v>11.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.00434246834711</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1692,25 +1692,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6.384474613065564</v>
+        <v>6.4</v>
       </c>
       <c r="F9" t="n">
-        <v>4.235678676052007</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>11.21478607420705</v>
+        <v>11.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5.994946679468142</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>13.3515886596149</v>
+        <v>13.4</v>
       </c>
       <c r="J9" t="n">
-        <v>7.667206068610206</v>
+        <v>7.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.969252670799072</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1727,25 +1727,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6.497668080034865</v>
+        <v>6.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3.307159772898022</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>10.24208860412031</v>
+        <v>10.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.754492231091853</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>16.30531282661649</v>
+        <v>16.3</v>
       </c>
       <c r="J10" t="n">
-        <v>8.74212472488991</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>3.998410845279575</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1762,25 +1762,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>6.771470613117262</v>
+        <v>6.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5.303785906359637</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
-        <v>10.33284150110639</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="n">
-        <v>7.432528992809608</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>17.32365098086952</v>
+        <v>17.3</v>
       </c>
       <c r="J11" t="n">
-        <v>11.72752547729286</v>
+        <v>11.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.976665958329995</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1797,25 +1797,25 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>5.632786825714742</v>
+        <v>5.6</v>
       </c>
       <c r="F12" t="n">
-        <v>4.310372716379857</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>10.41112355972619</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
-        <v>6.480494089224547</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>14.38319218404078</v>
+        <v>14.4</v>
       </c>
       <c r="J12" t="n">
-        <v>10.60915253619182</v>
+        <v>10.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.154297065904729</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1832,25 +1832,25 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>6.792637198926744</v>
+        <v>6.8</v>
       </c>
       <c r="F13" t="n">
-        <v>4.194431827041948</v>
+        <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.466698839437692</v>
+        <v>9.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.892199554104892</v>
+        <v>5.9</v>
       </c>
       <c r="I13" t="n">
-        <v>15.46042726328659</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>10.69162151559652</v>
+        <v>10.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.299400886219297</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1867,25 +1867,25 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>6.763001953189955</v>
+        <v>6.8</v>
       </c>
       <c r="F14" t="n">
-        <v>5.497784695950457</v>
+        <v>5.5</v>
       </c>
       <c r="G14" t="n">
-        <v>9.43385292006613</v>
+        <v>9.4</v>
       </c>
       <c r="H14" t="n">
-        <v>8.065222675431501</v>
+        <v>8.1</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14947245623486</v>
+        <v>16.1</v>
       </c>
       <c r="J14" t="n">
-        <v>8.913393777236621</v>
+        <v>8.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.172087481155351</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1902,25 +1902,25 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>6.987351435156675</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>6.17698253178211</v>
+        <v>6.2</v>
       </c>
       <c r="G15" t="n">
-        <v>10.03746604975949</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>9.237619949220747</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>14.15741140206323</v>
+        <v>14.2</v>
       </c>
       <c r="J15" t="n">
-        <v>9.360523059994408</v>
+        <v>9.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.235607769600428</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1937,25 +1937,25 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0259078499948</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>3.646323772576928</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.76502708256521</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>5.188419249978345</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>12.81336591048828</v>
+        <v>12.8</v>
       </c>
       <c r="J16" t="n">
-        <v>12.14466611766551</v>
+        <v>12.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.104831892713181</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1972,25 +1972,25 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6.111102677132735</v>
+        <v>6.1</v>
       </c>
       <c r="F17" t="n">
-        <v>3.585513629059411</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>10.01570396714812</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>5.735900280552724</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>13.77400869259392</v>
+        <v>13.8</v>
       </c>
       <c r="J17" t="n">
-        <v>8.026026361511484</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.405498764401679</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2007,25 +2007,25 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>5.89345441640773</v>
+        <v>5.9</v>
       </c>
       <c r="F18" t="n">
-        <v>3.359623626297076</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>9.935755254487706</v>
+        <v>9.9</v>
       </c>
       <c r="H18" t="n">
-        <v>5.276751481990456</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>14.50119595732503</v>
+        <v>14.5</v>
       </c>
       <c r="J18" t="n">
-        <v>8.74365134911012</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>2.013293000977941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2042,25 +2042,25 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471076572491066</v>
+        <v>5.5</v>
       </c>
       <c r="F19" t="n">
-        <v>4.437538408679321</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>10.30201878937601</v>
+        <v>10.3</v>
       </c>
       <c r="H19" t="n">
-        <v>6.658993742133537</v>
+        <v>6.7</v>
       </c>
       <c r="I19" t="n">
-        <v>15.52202594291855</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>7.855316745139894</v>
+        <v>7.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.631755741606113</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2077,25 +2077,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5.961757365129328</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>3.062934132505889</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>10.53447119019049</v>
+        <v>10.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.516455805116567</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13.73804305914929</v>
+        <v>13.7</v>
       </c>
       <c r="J20" t="n">
-        <v>12.07605353816364</v>
+        <v>12.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.923870397895818</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2112,25 +2112,25 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>6.22728912344096</v>
+        <v>6.2</v>
       </c>
       <c r="F21" t="n">
-        <v>3.431805476123702</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>10.06753010450634</v>
+        <v>10.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.924654820810231</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>12.85245715286911</v>
+        <v>12.9</v>
       </c>
       <c r="J21" t="n">
-        <v>11.54397765324113</v>
+        <v>11.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.571895071639516</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2147,25 +2147,25 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>5.63742747198792</v>
+        <v>5.6</v>
       </c>
       <c r="F22" t="n">
-        <v>4.946640673140298</v>
+        <v>4.9</v>
       </c>
       <c r="G22" t="n">
-        <v>9.61097910856849</v>
+        <v>9.6</v>
       </c>
       <c r="H22" t="n">
-        <v>7.708378807806557</v>
+        <v>7.7</v>
       </c>
       <c r="I22" t="n">
-        <v>16.55353289434919</v>
+        <v>16.6</v>
       </c>
       <c r="J22" t="n">
-        <v>10.6918637916479</v>
+        <v>10.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.37333611535264</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2182,25 +2182,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>5.88986823501064</v>
+        <v>5.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3.54570845875734</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>9.823726252003887</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>5.184593130662435</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>15.94939381324335</v>
+        <v>15.9</v>
       </c>
       <c r="J23" t="n">
-        <v>10.54469926851831</v>
+        <v>10.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.685594801890443</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2217,25 +2217,25 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>5.253312382538368</v>
+        <v>5.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.977356827836838</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>9.028570757050144</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.734128430430543</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>16.24505242745368</v>
+        <v>16.2</v>
       </c>
       <c r="J24" t="n">
-        <v>9.693859823919972</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>3.564834023762492</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2252,25 +2252,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>6.255465160034678</v>
+        <v>6.3</v>
       </c>
       <c r="F25" t="n">
-        <v>3.193671230844688</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>9.308878839455351</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>4.949342833630022</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>17.34704290355126</v>
+        <v>17.3</v>
       </c>
       <c r="J25" t="n">
-        <v>8.640893148732813</v>
+        <v>8.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.037977322617309</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2287,25 +2287,25 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>6.011359598074279</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>3.009538240764668</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>9.063990424071211</v>
+        <v>9.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.594826201790683</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>16.60235559046724</v>
+        <v>16.6</v>
       </c>
       <c r="J26" t="n">
-        <v>8.428236664527102</v>
+        <v>8.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.256134155050225</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2322,25 +2322,25 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>6.583295440460326</v>
+        <v>6.6</v>
       </c>
       <c r="F27" t="n">
-        <v>4.639636766998868</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
-        <v>8.771016520708676</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>6.634564004278094</v>
+        <v>6.6</v>
       </c>
       <c r="I27" t="n">
-        <v>15.08291554522064</v>
+        <v>15.1</v>
       </c>
       <c r="J27" t="n">
-        <v>12.27387786364308</v>
+        <v>12.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.464296917973521</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2357,25 +2357,25 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>5.638740507834784</v>
+        <v>5.6</v>
       </c>
       <c r="F28" t="n">
-        <v>4.525899141621929</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>11.02815528428064</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>6.525205914297459</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>17.46079919921866</v>
+        <v>17.5</v>
       </c>
       <c r="J28" t="n">
-        <v>9.782533213845591</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>3.627396089782897</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -2443,25 +2443,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5.170308263082359</v>
+        <v>5.2</v>
       </c>
       <c r="F2" t="n">
-        <v>4.773724118417948</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>10.58995765998624</v>
+        <v>10.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7.02503888973279</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>14.06124392826154</v>
+        <v>14.1</v>
       </c>
       <c r="J2" t="n">
-        <v>12.17234894772076</v>
+        <v>12.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.912152563777762</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2478,25 +2478,25 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5.070629579131314</v>
+        <v>5.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3.718128462702715</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>9.878772358817926</v>
+        <v>9.9</v>
       </c>
       <c r="H3" t="n">
-        <v>5.52272656252107</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>17.23081792906107</v>
+        <v>17.2</v>
       </c>
       <c r="J3" t="n">
-        <v>12.28020091054291</v>
+        <v>12.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.09137572034162</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2513,25 +2513,25 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>6.369327310913445</v>
+        <v>6.4</v>
       </c>
       <c r="F4" t="n">
-        <v>3.910521178005006</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.28177900472493</v>
+        <v>10.3</v>
       </c>
       <c r="H4" t="n">
-        <v>6.069693553093739</v>
+        <v>6.1</v>
       </c>
       <c r="I4" t="n">
-        <v>16.8524973232445</v>
+        <v>16.9</v>
       </c>
       <c r="J4" t="n">
-        <v>12.28010898896646</v>
+        <v>12.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.777823220179009</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2548,25 +2548,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.978894000161828</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>4.993130699280571</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>10.38009174945316</v>
+        <v>10.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7.394947718905399</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>14.70840348799622</v>
+        <v>14.7</v>
       </c>
       <c r="J5" t="n">
-        <v>8.287991219609779</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>3.529638140854446</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2583,25 +2583,25 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>6.870969886165936</v>
+        <v>6.9</v>
       </c>
       <c r="F6" t="n">
-        <v>6.663155165208426</v>
+        <v>6.7</v>
       </c>
       <c r="G6" t="n">
-        <v>11.07374154861059</v>
+        <v>11.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.921748840707107</v>
+        <v>9.9</v>
       </c>
       <c r="I6" t="n">
-        <v>13.44759028717348</v>
+        <v>13.4</v>
       </c>
       <c r="J6" t="n">
-        <v>8.28235238390609</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>2.460838781494102</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2618,25 +2618,25 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5.418947765511781</v>
+        <v>5.4</v>
       </c>
       <c r="F7" t="n">
-        <v>2.740049822452667</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>9.617401582995738</v>
+        <v>9.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.069165639025366</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>16.65334010043969</v>
+        <v>16.7</v>
       </c>
       <c r="J7" t="n">
-        <v>10.21779144816337</v>
+        <v>10.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.108229445931368</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2653,25 +2653,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>6.822251902314769</v>
+        <v>6.8</v>
       </c>
       <c r="F8" t="n">
-        <v>4.531171167173957</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9.166531731835439</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>7.160530600170513</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>16.38073771916703</v>
+        <v>16.4</v>
       </c>
       <c r="J8" t="n">
-        <v>11.5183593817785</v>
+        <v>11.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.00434246834711</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2688,25 +2688,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6.384474613065564</v>
+        <v>6.4</v>
       </c>
       <c r="F9" t="n">
-        <v>4.235678676052007</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>11.21478607420705</v>
+        <v>11.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5.994946679468142</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>13.3515886596149</v>
+        <v>13.4</v>
       </c>
       <c r="J9" t="n">
-        <v>7.667206068610206</v>
+        <v>7.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.969252670799072</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2723,25 +2723,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6.497668080034865</v>
+        <v>6.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3.307159772898022</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>10.24208860412031</v>
+        <v>10.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.754492231091853</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>16.30531282661649</v>
+        <v>16.3</v>
       </c>
       <c r="J10" t="n">
-        <v>8.74212472488991</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>3.998410845279575</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2758,25 +2758,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>6.771470613117262</v>
+        <v>6.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5.303785906359637</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
-        <v>10.33284150110639</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="n">
-        <v>7.432528992809608</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>17.32365098086952</v>
+        <v>17.3</v>
       </c>
       <c r="J11" t="n">
-        <v>11.72752547729286</v>
+        <v>11.7</v>
       </c>
       <c r="K11" t="n">
-        <v>2.976665958329995</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2793,25 +2793,25 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>5.632786825714742</v>
+        <v>5.6</v>
       </c>
       <c r="F12" t="n">
-        <v>4.310372716379857</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>10.41112355972619</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
-        <v>6.480494089224547</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>14.38319218404078</v>
+        <v>14.4</v>
       </c>
       <c r="J12" t="n">
-        <v>10.60915253619182</v>
+        <v>10.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.154297065904729</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2828,25 +2828,25 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>6.792637198926744</v>
+        <v>6.8</v>
       </c>
       <c r="F13" t="n">
-        <v>4.194431827041948</v>
+        <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.466698839437692</v>
+        <v>9.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.892199554104892</v>
+        <v>5.9</v>
       </c>
       <c r="I13" t="n">
-        <v>15.46042726328659</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>10.69162151559652</v>
+        <v>10.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.299400886219297</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2863,25 +2863,25 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>6.763001953189955</v>
+        <v>6.8</v>
       </c>
       <c r="F14" t="n">
-        <v>5.497784695950457</v>
+        <v>5.5</v>
       </c>
       <c r="G14" t="n">
-        <v>9.43385292006613</v>
+        <v>9.4</v>
       </c>
       <c r="H14" t="n">
-        <v>8.065222675431501</v>
+        <v>8.1</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14947245623486</v>
+        <v>16.1</v>
       </c>
       <c r="J14" t="n">
-        <v>8.913393777236621</v>
+        <v>8.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.172087481155351</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2898,25 +2898,25 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>6.987351435156675</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>6.17698253178211</v>
+        <v>6.2</v>
       </c>
       <c r="G15" t="n">
-        <v>10.03746604975949</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>9.237619949220747</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>14.15741140206323</v>
+        <v>14.2</v>
       </c>
       <c r="J15" t="n">
-        <v>9.360523059994408</v>
+        <v>9.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.235607769600428</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2933,25 +2933,25 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0259078499948</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>3.646323772576928</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.76502708256521</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>5.188419249978345</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>12.81336591048828</v>
+        <v>12.8</v>
       </c>
       <c r="J16" t="n">
-        <v>12.14466611766551</v>
+        <v>12.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.104831892713181</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2968,25 +2968,25 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6.111102677132735</v>
+        <v>6.1</v>
       </c>
       <c r="F17" t="n">
-        <v>3.585513629059411</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>10.01570396714812</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>5.735900280552724</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>13.77400869259392</v>
+        <v>13.8</v>
       </c>
       <c r="J17" t="n">
-        <v>8.026026361511484</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.405498764401679</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3003,25 +3003,25 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>5.89345441640773</v>
+        <v>5.9</v>
       </c>
       <c r="F18" t="n">
-        <v>3.359623626297076</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>9.935755254487706</v>
+        <v>9.9</v>
       </c>
       <c r="H18" t="n">
-        <v>5.276751481990456</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>14.50119595732503</v>
+        <v>14.5</v>
       </c>
       <c r="J18" t="n">
-        <v>8.74365134911012</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>2.013293000977941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3038,25 +3038,25 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471076572491066</v>
+        <v>5.5</v>
       </c>
       <c r="F19" t="n">
-        <v>4.437538408679321</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>10.30201878937601</v>
+        <v>10.3</v>
       </c>
       <c r="H19" t="n">
-        <v>6.658993742133537</v>
+        <v>6.7</v>
       </c>
       <c r="I19" t="n">
-        <v>15.52202594291855</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>7.855316745139894</v>
+        <v>7.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.631755741606113</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3073,25 +3073,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5.961757365129328</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>3.062934132505889</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>10.53447119019049</v>
+        <v>10.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.516455805116567</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13.73804305914929</v>
+        <v>13.7</v>
       </c>
       <c r="J20" t="n">
-        <v>12.07605353816364</v>
+        <v>12.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.923870397895818</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3108,25 +3108,25 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>6.22728912344096</v>
+        <v>6.2</v>
       </c>
       <c r="F21" t="n">
-        <v>3.431805476123702</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>10.06753010450634</v>
+        <v>10.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.924654820810231</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>12.85245715286911</v>
+        <v>12.9</v>
       </c>
       <c r="J21" t="n">
-        <v>11.54397765324113</v>
+        <v>11.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.571895071639516</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3143,25 +3143,25 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>5.63742747198792</v>
+        <v>5.6</v>
       </c>
       <c r="F22" t="n">
-        <v>4.946640673140298</v>
+        <v>4.9</v>
       </c>
       <c r="G22" t="n">
-        <v>9.61097910856849</v>
+        <v>9.6</v>
       </c>
       <c r="H22" t="n">
-        <v>7.708378807806557</v>
+        <v>7.7</v>
       </c>
       <c r="I22" t="n">
-        <v>16.55353289434919</v>
+        <v>16.6</v>
       </c>
       <c r="J22" t="n">
-        <v>10.6918637916479</v>
+        <v>10.7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.37333611535264</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3178,25 +3178,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>5.88986823501064</v>
+        <v>5.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3.54570845875734</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>9.823726252003887</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>5.184593130662435</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>15.94939381324335</v>
+        <v>15.9</v>
       </c>
       <c r="J23" t="n">
-        <v>10.54469926851831</v>
+        <v>10.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.685594801890443</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3213,25 +3213,25 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>5.253312382538368</v>
+        <v>5.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.977356827836838</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>9.028570757050144</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.734128430430543</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>16.24505242745368</v>
+        <v>16.2</v>
       </c>
       <c r="J24" t="n">
-        <v>9.693859823919972</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>3.564834023762492</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3248,25 +3248,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>6.255465160034678</v>
+        <v>6.3</v>
       </c>
       <c r="F25" t="n">
-        <v>3.193671230844688</v>
+        <v>3.2</v>
       </c>
       <c r="G25" t="n">
-        <v>9.308878839455351</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>4.949342833630022</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>17.34704290355126</v>
+        <v>17.3</v>
       </c>
       <c r="J25" t="n">
-        <v>8.640893148732813</v>
+        <v>8.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.037977322617309</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3283,25 +3283,25 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>6.011359598074279</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>3.009538240764668</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>9.063990424071211</v>
+        <v>9.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.594826201790683</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>16.60235559046724</v>
+        <v>16.6</v>
       </c>
       <c r="J26" t="n">
-        <v>8.428236664527102</v>
+        <v>8.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.256134155050225</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3318,25 +3318,25 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>6.583295440460326</v>
+        <v>6.6</v>
       </c>
       <c r="F27" t="n">
-        <v>4.639636766998868</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
-        <v>8.771016520708676</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>6.634564004278094</v>
+        <v>6.6</v>
       </c>
       <c r="I27" t="n">
-        <v>15.08291554522064</v>
+        <v>15.1</v>
       </c>
       <c r="J27" t="n">
-        <v>12.27387786364308</v>
+        <v>12.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.464296917973521</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3353,25 +3353,25 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>5.638740507834784</v>
+        <v>5.6</v>
       </c>
       <c r="F28" t="n">
-        <v>4.525899141621929</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>11.02815528428064</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>6.525205914297459</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>17.46079919921866</v>
+        <v>17.5</v>
       </c>
       <c r="J28" t="n">
-        <v>9.782533213845591</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>3.627396089782897</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -3433,25 +3433,25 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.536755051042372</v>
+        <v>5.5</v>
       </c>
       <c r="E2" t="n">
-        <v>4.134124586375223</v>
+        <v>4.1</v>
       </c>
       <c r="F2" t="n">
-        <v>10.2501696745097</v>
+        <v>10.3</v>
       </c>
       <c r="G2" t="n">
-        <v>6.205819668449199</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>16.04818639352237</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>12.24421961574338</v>
+        <v>12.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.927117168099464</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3465,25 +3465,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6.089603883946515</v>
+        <v>6.1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.798778562313887</v>
+        <v>4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>10.3570782936865</v>
+        <v>10.4</v>
       </c>
       <c r="G3" t="n">
-        <v>7.128620732879291</v>
+        <v>7.1</v>
       </c>
       <c r="H3" t="n">
-        <v>14.93644462520313</v>
+        <v>14.9</v>
       </c>
       <c r="I3" t="n">
-        <v>8.929378350559745</v>
+        <v>8.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.699568789426638</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3497,25 +3497,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6.568131531805065</v>
+        <v>6.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4.024669872041328</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>10.20780213672093</v>
+        <v>10.2</v>
       </c>
       <c r="G4" t="n">
-        <v>5.96998983691017</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>15.34587973513281</v>
+        <v>15.3</v>
       </c>
       <c r="I4" t="n">
-        <v>9.309230058426204</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>3.324001994808585</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3529,25 +3529,25 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.398964879252916</v>
+        <v>6.4</v>
       </c>
       <c r="E5" t="n">
-        <v>4.602863483260481</v>
+        <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>10.07022130009009</v>
+        <v>10.1</v>
       </c>
       <c r="G5" t="n">
-        <v>6.601740878713016</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>15.72242347606563</v>
+        <v>15.7</v>
       </c>
       <c r="I5" t="n">
-        <v>11.0094331763604</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>2.810121303484674</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3561,25 +3561,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>6.592087079447143</v>
+        <v>6.6</v>
       </c>
       <c r="E6" t="n">
-        <v>5.107030333436498</v>
+        <v>5.1</v>
       </c>
       <c r="F6" t="n">
-        <v>9.412115350796944</v>
+        <v>9.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7.497087291543532</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>14.37341658959546</v>
+        <v>14.4</v>
       </c>
       <c r="I6" t="n">
-        <v>10.13952765163218</v>
+        <v>10.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.17084238115632</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3593,25 +3593,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5.825211222010512</v>
+        <v>5.8</v>
       </c>
       <c r="E7" t="n">
-        <v>3.79422522134527</v>
+        <v>3.8</v>
       </c>
       <c r="F7" t="n">
-        <v>10.08449267033728</v>
+        <v>10.1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.890548501558906</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>14.59907686427916</v>
+        <v>14.6</v>
       </c>
       <c r="I7" t="n">
-        <v>8.208331485253833</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>2.683515835661911</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3625,25 +3625,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5.942157986852735</v>
+        <v>5.9</v>
       </c>
       <c r="E8" t="n">
-        <v>3.813793427256629</v>
+        <v>3.8</v>
       </c>
       <c r="F8" t="n">
-        <v>10.07099346775511</v>
+        <v>10.1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.716496477911118</v>
+        <v>5.7</v>
       </c>
       <c r="H8" t="n">
-        <v>14.3813443687892</v>
+        <v>14.4</v>
       </c>
       <c r="I8" t="n">
-        <v>11.43729832768422</v>
+        <v>11.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.956367194962658</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3657,25 +3657,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>5.799548592527896</v>
+        <v>5.8</v>
       </c>
       <c r="E9" t="n">
-        <v>3.238912172479621</v>
+        <v>3.2</v>
       </c>
       <c r="F9" t="n">
-        <v>9.387058616169794</v>
+        <v>9.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.956021464907667</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>16.51382971474943</v>
+        <v>16.5</v>
       </c>
       <c r="I9" t="n">
-        <v>9.626484080390368</v>
+        <v>9.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.429468716090081</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3689,25 +3689,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>6.077798515456462</v>
+        <v>6.1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.058358049795156</v>
+        <v>4.1</v>
       </c>
       <c r="F10" t="n">
-        <v>9.621054076353509</v>
+        <v>9.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.918198706788746</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>16.38202344496885</v>
+        <v>16.4</v>
       </c>
       <c r="I10" t="n">
-        <v>10.16154924733859</v>
+        <v>10.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.449275720935547</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -3769,25 +3769,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7227491860518911</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5622005071745324</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3566447749048877</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7603507885077779</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.73110857267502</v>
+        <v>1.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06224184126378884</v>
+        <v>0.1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.097255623676768</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3801,25 +3801,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7323145283912925</v>
+        <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>1.968760637418204</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7284426801207579</v>
+        <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2.93536711175385</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.614995367333304</v>
+        <v>1.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.115802035163246</v>
+        <v>1.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7401653072228754</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3833,25 +3833,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2272356976184073</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6387053388353996</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1.024557530910823</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.203213319142754</v>
+        <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.727518422194632</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.98722213274605</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.142951660885163</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3865,25 +3865,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6636140545387554</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6097784473540457</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5241293166379678</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7772897033320602</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.487634362198855</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6232517129016728</v>
+        <v>0.6</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5904392698389181</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3897,25 +3897,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5029934019568457</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.309799667030514</v>
+        <v>1.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6364979361686193</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.083528242310489</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.67850987543235</v>
+        <v>1.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.750833044539011</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.065388484115846</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3929,25 +3929,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3254246515583135</v>
+        <v>0.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5684588517082082</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1925776687782222</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7039783168725051</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8781096633210158</v>
+        <v>0.9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4713925760550006</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8442899559005191</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3961,25 +3961,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2954188444993796</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9982603262252097</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4617557821710274</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.737052970181273</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.932580617278719</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6982339668519294</v>
+        <v>0.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5999399339005315</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3993,25 +3993,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5071447285780954</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2868639942420627</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4033015291368521</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2253066013803394</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7365708842563521</v>
+        <v>0.7</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9536897050641301</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6862779651736042</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4757694846183367</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9100831312125597</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1.227358457837549</v>
+        <v>1.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.147377831492176</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.204156285015648</v>
+        <v>1.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.950635517803908</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.186086225486203</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
